--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pomc-Mc5r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pomc-Mc5r.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.1885723333333333</v>
+      </c>
+      <c r="H2">
+        <v>0.565717</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.3560076666666667</v>
-      </c>
-      <c r="H2">
-        <v>1.068023</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.2712813333333333</v>
+        <v>0.01518366666666667</v>
       </c>
       <c r="N2">
-        <v>0.813844</v>
+        <v>0.045551</v>
       </c>
       <c r="O2">
-        <v>0.1908343498265513</v>
+        <v>0.02370341769240456</v>
       </c>
       <c r="P2">
-        <v>0.1908343498265513</v>
+        <v>0.02370341769240456</v>
       </c>
       <c r="Q2">
-        <v>0.09657823449022222</v>
+        <v>0.002863219451888889</v>
       </c>
       <c r="R2">
-        <v>0.869204110412</v>
+        <v>0.025768975067</v>
       </c>
       <c r="S2">
-        <v>0.1908343498265513</v>
+        <v>0.02370341769240456</v>
       </c>
       <c r="T2">
-        <v>0.1908343498265513</v>
+        <v>0.02370341769240456</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3560076666666667</v>
+        <v>0.1885723333333333</v>
       </c>
       <c r="H3">
-        <v>1.068023</v>
+        <v>0.565717</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>1.671582</v>
       </c>
       <c r="O3">
-        <v>0.3919611917661939</v>
+        <v>0.8698427334878488</v>
       </c>
       <c r="P3">
-        <v>0.3919611917661939</v>
+        <v>0.8698427334878488</v>
       </c>
       <c r="Q3">
-        <v>0.1983653358206666</v>
+        <v>0.1050713726993333</v>
       </c>
       <c r="R3">
-        <v>1.785288022386</v>
+        <v>0.945642354294</v>
       </c>
       <c r="S3">
-        <v>0.3919611917661939</v>
+        <v>0.8698427334878488</v>
       </c>
       <c r="T3">
-        <v>0.3919611917661939</v>
+        <v>0.8698427334878488</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.1885723333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.565717</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.3560076666666667</v>
-      </c>
-      <c r="H4">
-        <v>1.068023</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M4">
-        <v>0.5930786666666666</v>
+        <v>0.068191</v>
       </c>
       <c r="N4">
-        <v>1.779236</v>
+        <v>0.204573</v>
       </c>
       <c r="O4">
-        <v>0.4172044584072548</v>
+        <v>0.1064538488197466</v>
       </c>
       <c r="P4">
-        <v>0.4172044584072548</v>
+        <v>0.1064538488197466</v>
       </c>
       <c r="Q4">
-        <v>0.2111405522697778</v>
+        <v>0.01285893598233333</v>
       </c>
       <c r="R4">
-        <v>1.900264970428</v>
+        <v>0.115730423841</v>
       </c>
       <c r="S4">
-        <v>0.4172044584072548</v>
+        <v>0.1064538488197466</v>
       </c>
       <c r="T4">
-        <v>0.4172044584072548</v>
+        <v>0.1064538488197466</v>
       </c>
     </row>
   </sheetData>
